--- a/data_year/zb/社会服务/社会工作师人员.xlsx
+++ b/data_year/zb/社会服务/社会工作师人员.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,200 +468,150 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52419</v>
+        <v>37753</v>
       </c>
       <c r="C2" t="n">
-        <v>20648</v>
+        <v>5428</v>
       </c>
       <c r="D2" t="n">
-        <v>60139</v>
+        <v>46047</v>
       </c>
       <c r="E2" t="n">
-        <v>62953</v>
+        <v>19175</v>
       </c>
       <c r="F2" t="n">
-        <v>4192</v>
+        <v>2664</v>
       </c>
       <c r="G2" t="n">
-        <v>77698</v>
+        <v>25547</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31694</v>
+        <v>44100</v>
       </c>
       <c r="C3" t="n">
-        <v>6611</v>
+        <v>8068</v>
       </c>
       <c r="D3" t="n">
-        <v>38204</v>
+        <v>54515</v>
       </c>
       <c r="E3" t="n">
-        <v>35943</v>
+        <v>19426</v>
       </c>
       <c r="F3" t="n">
-        <v>4227</v>
+        <v>2338</v>
       </c>
       <c r="G3" t="n">
-        <v>46015</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37753</v>
+        <v>75509</v>
       </c>
       <c r="C4" t="n">
-        <v>5428</v>
+        <v>23846</v>
       </c>
       <c r="D4" t="n">
-        <v>46047</v>
+        <v>92621</v>
       </c>
       <c r="E4" t="n">
-        <v>19175</v>
+        <v>26125</v>
       </c>
       <c r="F4" t="n">
-        <v>2664</v>
+        <v>6104</v>
       </c>
       <c r="G4" t="n">
-        <v>25547</v>
+        <v>34245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44100</v>
+        <v>97527</v>
       </c>
       <c r="C5" t="n">
-        <v>8068</v>
+        <v>27300</v>
       </c>
       <c r="D5" t="n">
-        <v>54515</v>
+        <v>121937</v>
       </c>
       <c r="E5" t="n">
-        <v>19426</v>
+        <v>36695</v>
       </c>
       <c r="F5" t="n">
-        <v>2338</v>
+        <v>11658</v>
       </c>
       <c r="G5" t="n">
-        <v>25500</v>
+        <v>48287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75509</v>
+        <v>116672</v>
       </c>
       <c r="C6" t="n">
-        <v>23846</v>
+        <v>28386</v>
       </c>
       <c r="D6" t="n">
-        <v>92621</v>
+        <v>144282</v>
       </c>
       <c r="E6" t="n">
-        <v>26125</v>
+        <v>49258</v>
       </c>
       <c r="F6" t="n">
-        <v>6104</v>
+        <v>7417</v>
       </c>
       <c r="G6" t="n">
-        <v>34245</v>
+        <v>62580</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97527</v>
+        <v>155337</v>
       </c>
       <c r="C7" t="n">
-        <v>27300</v>
+        <v>34274</v>
       </c>
       <c r="D7" t="n">
-        <v>121937</v>
+        <v>196965</v>
       </c>
       <c r="E7" t="n">
-        <v>36695</v>
+        <v>59851</v>
       </c>
       <c r="F7" t="n">
-        <v>11658</v>
+        <v>13155</v>
       </c>
       <c r="G7" t="n">
-        <v>48287</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>116672</v>
-      </c>
-      <c r="C8" t="n">
-        <v>28386</v>
-      </c>
-      <c r="D8" t="n">
-        <v>144282</v>
-      </c>
-      <c r="E8" t="n">
-        <v>49258</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7417</v>
-      </c>
-      <c r="G8" t="n">
-        <v>62580</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>155337</v>
-      </c>
-      <c r="C9" t="n">
-        <v>34274</v>
-      </c>
-      <c r="D9" t="n">
-        <v>196965</v>
-      </c>
-      <c r="E9" t="n">
-        <v>59851</v>
-      </c>
-      <c r="F9" t="n">
-        <v>13155</v>
-      </c>
-      <c r="G9" t="n">
         <v>79535</v>
       </c>
     </row>
